--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -3503,9 +3503,21 @@
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -1426,7 +1426,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1983,7 +1983,11 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>PAUL FROM SENDIK'S WILL BE THE FINANCE REP ON SITE</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -2041,22 +2045,9 @@
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -2099,15 +2090,20 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -2146,19 +2142,15 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2218,15 +2210,19 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2277,7 +2273,7 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -2349,7 +2345,7 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -2417,7 +2413,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -2484,7 +2480,7 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -2552,7 +2548,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -2619,15 +2615,19 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2673,8 +2673,16 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2760,11 +2768,7 @@
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2805,7 +2809,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2848,7 +2852,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2891,7 +2895,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>WILLY STREET COOP, MIDDLETON</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2934,7 +2938,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>6825 UNIVERSITY AVE</t>
+          <t>WILLY STREET COOP, MIDDLETON</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2973,7 +2977,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/in4JiZtePA62</t>
+          <t>6825 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3022,7 +3026,11 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/in4JiZtePA62</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
@@ -3065,21 +3073,9 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
@@ -3136,17 +3132,17 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>2nd store, work w/ Ashley</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3199,18 +3195,17 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>2nd week,
-work w/ Leyna</t>
+          <t>2nd store, work w/ Ashley</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3259,17 +3254,18 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>2nd week,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3310,18 +3306,17 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3366,18 +3361,18 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>Driver,
+Santa Fe</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -3430,17 +3425,18 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
@@ -3489,12 +3485,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3548,12 +3544,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3593,9 +3589,21 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -744,7 +744,11 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Festival Foods is going through the process of selling to new ownership.  Starting Thursday (9/18) there may be extra store personnel at the Festivals for the remainder of this round of inventories.  All processes are expected to remain the same, you may encounter a few extra recounts however due to the sale.  Thank you for all your hard work and for keeping our customers happy!</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -1392,7 +1392,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2nd week,
+          <t>1st Festival, (2nd week),
 work w/ Jerry</t>
         </is>
       </c>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -2360,7 +2360,7 @@
       <c r="S36" t="inlineStr">
         <is>
           <t>Driver,
-Wht Camry</t>
+Santa Fe</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -3376,7 +3376,7 @@
       <c r="S55" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe</t>
+Wht Camry</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -1605,7 +1605,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Until 1:00</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -3097,7 +3097,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>2nd week,
+          <t>2nd Festival (2nd week),
 work w/ Leyna</t>
         </is>
       </c>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2nd week,
+          <t>1st Pig (2nd week),
 work w/ Leyna</t>
         </is>
       </c>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -1090,11 +1090,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -3331,7 +3331,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3562,9 +3562,21 @@
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -3652,9 +3652,21 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -2410,7 +2410,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2719,10 +2719,14 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -2755,21 +2759,9 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -782,7 +782,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -829,7 +829,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -923,7 +923,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -970,7 +970,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1017,7 +1017,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -1064,7 +1064,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -1166,7 +1166,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1282,7 +1282,11 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -1337,21 +1341,9 @@
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1421,15 +1413,19 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -1474,8 +1470,16 @@
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
@@ -1569,11 +1573,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1764,7 +1764,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>SENDIK'S, WEST BEND</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1823,7 +1823,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>280 NORTH 18TH AVE</t>
+          <t>SENDIK'S, WEST BEND</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/yycubiparBs</t>
+          <t>280 NORTH 18TH AVE</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1929,7 +1929,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t xml:space="preserve">RESET-REMAPPED </t>
+          <t>https://goo.gl/maps/yycubiparBs</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1989,7 +1989,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>PAUL FROM SENDIK'S WILL BE THE FINANCE REP ON SITE</t>
+          <t xml:space="preserve">RESET-REMAPPED </t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2050,7 +2050,11 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>PAUL FROM SENDIK'S WILL BE THE FINANCE REP ON SITE</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
@@ -2092,22 +2096,9 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -2146,15 +2137,20 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2214,19 +2210,15 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2277,18 +2269,17 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -2349,18 +2340,18 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe</t>
+Red Van</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -2417,15 +2408,20 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
@@ -2484,12 +2480,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2552,12 +2548,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2619,19 +2615,15 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2679,15 +2671,19 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
@@ -2728,8 +2724,16 @@
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2803,11 +2807,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2934,7 +2934,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>WILLY STREET COOP, MIDDLETON</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2973,7 +2973,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>6825 UNIVERSITY AVE</t>
+          <t>WILLY STREET COOP, MIDDLETON</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3024,7 +3024,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/in4JiZtePA62</t>
+          <t>6825 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3070,7 +3070,11 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/in4JiZtePA62</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -3126,21 +3130,9 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
@@ -3191,17 +3183,17 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>2nd store, work w/ Ashley</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3250,18 +3242,17 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>2nd week,
-work w/ Leyna</t>
+          <t>2nd store, work w/ Ashley</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3302,17 +3293,18 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>2nd week,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3357,18 +3349,17 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -3421,18 +3412,18 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
@@ -3481,17 +3472,18 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3540,12 +3532,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3599,12 +3591,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3646,12 +3638,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3691,9 +3683,21 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -1423,7 +1423,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>@ Store, Optima, Equip</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1477,10 +1477,14 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -2079,7 +2083,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #071, MILWAUKEE</t>
+          <t>PIGGLY WIGGLY #007, MILWAUKEE</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2274,14 +2278,10 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>

--- a/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Milwaukee Schedule.xlsx
@@ -2430,10 +2430,14 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -3553,7 +3557,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3605,9 +3609,21 @@
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
